--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2099.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2099.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.441761615527704</v>
+        <v>3.311647653579712</v>
       </c>
       <c r="B1">
-        <v>2.809171940840142</v>
+        <v>2.47678804397583</v>
       </c>
       <c r="C1">
-        <v>2.501080833647192</v>
+        <v>2.084283351898193</v>
       </c>
       <c r="D1">
-        <v>2.750907900613392</v>
+        <v>2.167176246643066</v>
       </c>
       <c r="E1">
-        <v>3.293565312325942</v>
+        <v>2.506239414215088</v>
       </c>
     </row>
   </sheetData>
